--- a/downloaded_files/CMPS102_Tutorial-35479.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35479.xlsx
@@ -141,13 +141,13 @@
     <x:t>Sherif Mohammed Ahmed Sayed Abdelatif</x:t>
   </x:si>
   <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+    <x:t>1240094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد طارق سعد عبدالحميد البرهامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
   </x:si>
   <x:si>
     <x:t>1240337</x:t>
@@ -794,7 +794,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.370625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.330625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.480625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1260,7 +1260,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45927.4235988426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
